--- a/src/main/java/com/diningedge/testData/OGData.xlsx
+++ b/src/main/java/com/diningedge/testData/OGData.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\DiningEdgeByMohit\DiningEdge\src\main\java\com\diningedge\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D32BB66-5300-4FFD-B123-883848C498C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EABA73A-87B2-4420-98AD-074DD7073955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17304" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Cheney" sheetId="1" r:id="rId1"/>
+    <sheet name="US_Food" sheetId="2" r:id="rId2"/>
+    <sheet name="Sysco" sheetId="3" r:id="rId3"/>
+    <sheet name="PFG" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>Vendor</t>
   </si>
@@ -431,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,10 +475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665A59CB-E8B6-4B38-A785-5610FAD9253F}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,67 +501,193 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9F56F8-FE73-4B72-81A5-F47AAFC4977E}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817CC873-2B8A-4439-B3C1-F117AECD2460}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D222432-A2FD-41FF-9016-A96C3E9E6B26}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/main/java/com/diningedge/testData/OGData.xlsx
+++ b/src/main/java/com/diningedge/testData/OGData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\DiningEdgeByMohit\DiningEdge\src\main\java\com\diningedge\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EABA73A-87B2-4420-98AD-074DD7073955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A02DB5-4434-415A-9E1A-9901A77FB858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheney" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Vendor</t>
   </si>
@@ -517,10 +517,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9F56F8-FE73-4B72-81A5-F47AAFC4977E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,39 +552,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -594,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817CC873-2B8A-4439-B3C1-F117AECD2460}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/com/diningedge/testData/OGData.xlsx
+++ b/src/main/java/com/diningedge/testData/OGData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\DiningEdgeByMohit\DiningEdge\src\main\java\com\diningedge\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\DiningEdgeByM\DiningEdge\src\main\java\com\diningedge\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A02DB5-4434-415A-9E1A-9901A77FB858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108799CA-3B4D-4034-B5BA-FB9ED32B6605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheney" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Vendor</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t>Kellys Foods Inc.</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>017</t>
   </si>
 </sst>
 </file>
@@ -148,10 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +462,7 @@
     <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +472,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -465,6 +485,9 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -475,10 +498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665A59CB-E8B6-4B38-A785-5610FAD9253F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,7 +511,7 @@
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +521,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -508,6 +534,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -517,10 +546,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9F56F8-FE73-4B72-81A5-F47AAFC4977E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +559,7 @@
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,8 +569,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -550,6 +582,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -559,10 +594,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817CC873-2B8A-4439-B3C1-F117AECD2460}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,7 +607,7 @@
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,8 +617,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -592,6 +630,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/diningedge/testData/OGData.xlsx
+++ b/src/main/java/com/diningedge/testData/OGData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\DiningEdgeByM\DiningEdge\src\main\java\com\diningedge\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108799CA-3B4D-4034-B5BA-FB9ED32B6605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECC3A2E-7C61-4E13-9C4B-A8E9DAC20C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheney" sheetId="1" r:id="rId1"/>
@@ -103,10 +103,10 @@
     <t>016</t>
   </si>
   <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>017</t>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
   </si>
 </sst>
 </file>
@@ -163,11 +163,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -451,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,7 +471,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -486,7 +485,7 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -501,7 +500,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,7 +520,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -535,8 +534,8 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -549,7 +548,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,7 +568,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -583,7 +582,7 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -596,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817CC873-2B8A-4439-B3C1-F117AECD2460}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,7 +616,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -631,8 +630,8 @@
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/diningedge/testData/OGData.xlsx
+++ b/src/main/java/com/diningedge/testData/OGData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\DiningEdgeByM\DiningEdge\src\main\java\com\diningedge\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECC3A2E-7C61-4E13-9C4B-A8E9DAC20C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95644568-6746-4EBB-9F2F-8444946EECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheney" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Vendor</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Cheney</t>
   </si>
   <si>
-    <t>Automation Cheney</t>
-  </si>
-  <si>
-    <t>Cheney Testing</t>
-  </si>
-  <si>
     <t>US Foods</t>
   </si>
   <si>
@@ -61,24 +55,12 @@
     <t>Hillcrest</t>
   </si>
   <si>
-    <t>Automation US Food</t>
-  </si>
-  <si>
     <t>Automation Hill</t>
   </si>
   <si>
-    <t>US Food Testing</t>
-  </si>
-  <si>
-    <t>Automation Sysco</t>
-  </si>
-  <si>
     <t>Automation PFG</t>
   </si>
   <si>
-    <t>Sysco Testing</t>
-  </si>
-  <si>
     <t>PFG Testing</t>
   </si>
   <si>
@@ -107,6 +89,30 @@
   </si>
   <si>
     <t>020</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>US Food Milk</t>
+  </si>
+  <si>
+    <t>Tomatoes</t>
+  </si>
+  <si>
+    <t>Tomato red</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Chicken cube</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>ice cream butterscotch</t>
   </si>
 </sst>
 </file>
@@ -450,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -480,13 +486,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -500,7 +506,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,21 +527,21 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +554,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,21 +575,21 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -595,15 +601,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817CC873-2B8A-4439-B3C1-F117AECD2460}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -617,21 +624,21 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -667,35 +674,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/diningedge/testData/OGData.xlsx
+++ b/src/main/java/com/diningedge/testData/OGData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\DiningEdgeByM\DiningEdge\src\main\java\com\diningedge\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95644568-6746-4EBB-9F2F-8444946EECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A90444-7CBB-461C-A7A1-C1222557808E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
